--- a/data/trans_orig/P50_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P50_2-Habitat-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5605</v>
+        <v>5926</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001957993714163474</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01054304735774844</v>
+        <v>0.01114782823091894</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6221</v>
+        <v>5937</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00124814298243738</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007459061779980619</v>
+        <v>0.007118903964387546</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3677</v>
+        <v>3618</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.001367173163588277</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.006916089290543987</v>
+        <v>0.006806047251008513</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3588</v>
+        <v>3679</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0008715184209048736</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.004302045269249895</v>
+        <v>0.004411669973593622</v>
       </c>
     </row>
     <row r="6">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6516</v>
+        <v>6565</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003569889169107471</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01225650039256985</v>
+        <v>0.01234928398959459</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4639</v>
+        <v>5322</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003453566751653789</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01534255587434732</v>
+        <v>0.01760082366395542</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -913,16 +913,16 @@
         <v>724</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8720</v>
+        <v>8434</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003527717658265353</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0008680386449099638</v>
+        <v>0.0008679121720704169</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0104558763241276</v>
+        <v>0.01011338565074711</v>
       </c>
     </row>
     <row r="7">
@@ -939,19 +939,19 @@
         <v>527953</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>522210</v>
+        <v>522386</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>530574</v>
+        <v>530881</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9931049439531408</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9823009842008841</v>
+        <v>0.9826315859518605</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9980350829440809</v>
+        <v>0.9986120843381077</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>284</v>
@@ -960,7 +960,7 @@
         <v>301302</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>297707</v>
+        <v>297024</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>302346</v>
@@ -969,7 +969,7 @@
         <v>0.9965464332483462</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9846574441256519</v>
+        <v>0.9823991763360446</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -981,19 +981,19 @@
         <v>829255</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>822849</v>
+        <v>823544</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>832210</v>
+        <v>832496</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9943526209383924</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9866714431127916</v>
+        <v>0.987503851519508</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9978950179587716</v>
+        <v>0.9982386707901438</v>
       </c>
     </row>
     <row r="8">
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7218</v>
+        <v>6746</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001611148181527059</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.009223421605210681</v>
+        <v>0.008620232090485949</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7239</v>
+        <v>5948</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0009831894298758187</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.005644469817990156</v>
+        <v>0.004637848201812744</v>
       </c>
     </row>
     <row r="10">
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5443</v>
+        <v>6274</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002142654932972312</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01089032568051261</v>
+        <v>0.01255270772988994</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6079</v>
+        <v>5361</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0008351180433654404</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004740318659614029</v>
+        <v>0.004180347402787253</v>
       </c>
     </row>
     <row r="11">
@@ -1211,19 +1211,19 @@
         <v>3216</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9532</v>
+        <v>9486</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004109500109040665</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001314086554725619</v>
+        <v>0.001310517267477374</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01218028685388577</v>
+        <v>0.01212076049747876</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6709</v>
+        <v>6270</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002084332399846446</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01342257127075181</v>
+        <v>0.01254407559181822</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1253,19 +1253,19 @@
         <v>4258</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11494</v>
+        <v>10637</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003320173713659294</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0008282201928753396</v>
+        <v>0.0008320522789951525</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.008962890969747207</v>
+        <v>0.008294601041676241</v>
       </c>
     </row>
     <row r="12">
@@ -1282,19 +1282,19 @@
         <v>778119</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>771443</v>
+        <v>771540</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>781458</v>
+        <v>781452</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9942793517094323</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9857489295560452</v>
+        <v>0.985873199271923</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9985462877327693</v>
+        <v>0.9985378213867796</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>451</v>
@@ -1303,7 +1303,7 @@
         <v>497728</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>492470</v>
+        <v>491443</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>499841</v>
@@ -1312,7 +1312,7 @@
         <v>0.9957730126671812</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9852536279367603</v>
+        <v>0.983199431720555</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1324,19 +1324,19 @@
         <v>1275847</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1268598</v>
+        <v>1268303</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1280130</v>
+        <v>1280125</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9948615188130995</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9892087677433272</v>
+        <v>0.9889791232102799</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.998201125793347</v>
+        <v>0.9981970920065552</v>
       </c>
     </row>
     <row r="13">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5439</v>
+        <v>5815</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001635942058231309</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.009335491332398195</v>
+        <v>0.009980767638852799</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7027</v>
+        <v>6105</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.005334974723182464</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01875019514268207</v>
+        <v>0.01629152477300051</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -1520,16 +1520,16 @@
         <v>948</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7777</v>
+        <v>8055</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.003083944515299998</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0009897528963531243</v>
+        <v>0.0009898301698095665</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.008123949496493678</v>
+        <v>0.008414297797718722</v>
       </c>
     </row>
     <row r="16">
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6838</v>
+        <v>5904</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003374822152725707</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01173809951819461</v>
+        <v>0.01013387558101043</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7160</v>
+        <v>6372</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005545168156188602</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01910580669958236</v>
+        <v>0.01700347159046965</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1588,19 +1588,19 @@
         <v>4044</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>999</v>
+        <v>1078</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10101</v>
+        <v>10013</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004224413554142807</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001043064925624446</v>
+        <v>0.001125543244004007</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01055134274044501</v>
+        <v>0.01045941052696715</v>
       </c>
     </row>
     <row r="17">
@@ -1617,19 +1617,19 @@
         <v>579662</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>574237</v>
+        <v>574871</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>581630</v>
+        <v>581640</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.994989235789043</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9856767437013731</v>
+        <v>0.9867655950295329</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9983672017440778</v>
+        <v>0.9983853162592211</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>332</v>
@@ -1638,19 +1638,19 @@
         <v>370675</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>365270</v>
+        <v>365001</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>373745</v>
+        <v>373741</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9891198571206289</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.97469692262357</v>
+        <v>0.9739808451513058</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.99731226884322</v>
+        <v>0.9973014375332303</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>862</v>
@@ -1659,19 +1659,19 @@
         <v>950336</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>943763</v>
+        <v>943977</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>954384</v>
+        <v>954337</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9926916419305571</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9858256586769353</v>
+        <v>0.9860486569434044</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9969197407066354</v>
+        <v>0.9968703209065861</v>
       </c>
     </row>
     <row r="18">
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5501</v>
+        <v>6200</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001292806932132231</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007589913717372586</v>
+        <v>0.00855438225565989</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4731</v>
+        <v>5447</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002012365712216461</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01005013532791628</v>
+        <v>0.01157091493934214</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6628</v>
+        <v>5702</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001576130746613977</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005543758656365846</v>
+        <v>0.004769523782069606</v>
       </c>
     </row>
     <row r="21">
@@ -1881,19 +1881,19 @@
         <v>3174</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8386</v>
+        <v>8484</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.004379721708247521</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001311169807813095</v>
+        <v>0.001312459651979084</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01156989342882316</v>
+        <v>0.01170581071308235</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6892</v>
+        <v>6889</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.004386915429540349</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01464051295298299</v>
+        <v>0.01463387447317917</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1923,19 +1923,19 @@
         <v>5239</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1920</v>
+        <v>1174</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11511</v>
+        <v>10835</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.004382554211461176</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.001605899573113667</v>
+        <v>0.0009821955362864471</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.009628738176306769</v>
+        <v>0.009063346191852723</v>
       </c>
     </row>
     <row r="22">
@@ -1952,19 +1952,19 @@
         <v>720678</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>715417</v>
+        <v>714882</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>723766</v>
+        <v>723754</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9943274713596203</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9870697779479957</v>
+        <v>0.9863317023496424</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9985886095439386</v>
+        <v>0.9985724533234199</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>445</v>
@@ -1973,19 +1973,19 @@
         <v>467721</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>462661</v>
+        <v>462401</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>469827</v>
+        <v>469825</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9936007188582432</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9828517797338242</v>
+        <v>0.9823005794317721</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9980752128017183</v>
+        <v>0.9980703381396655</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1142</v>
@@ -1994,19 +1994,19 @@
         <v>1188398</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1181426</v>
+        <v>1182121</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1192576</v>
+        <v>1192713</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9940413150419248</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9882092720381456</v>
+        <v>0.9887907719319228</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9975361398753421</v>
+        <v>0.997650780208322</v>
       </c>
     </row>
     <row r="23">
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8485</v>
+        <v>8910</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0008780127920626552</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.003236564322628877</v>
+        <v>0.00339884780108139</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7280</v>
+        <v>7904</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0005391537397452019</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.001705219235926317</v>
+        <v>0.001851268949865502</v>
       </c>
     </row>
     <row r="25">
@@ -2161,19 +2161,19 @@
         <v>2617</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7102</v>
+        <v>7140</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0009982114680604031</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0002763524158159796</v>
+        <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.002709134614138487</v>
+        <v>0.00272348994443007</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2182,19 +2182,19 @@
         <v>4018</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9964</v>
+        <v>10144</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002438329994593581</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.000607871825481171</v>
+        <v>0.0006109516406269073</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.006047067262122662</v>
+        <v>0.006156495177476352</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -2203,19 +2203,19 @@
         <v>6634</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2450</v>
+        <v>2890</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13256</v>
+        <v>13351</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001554008836319038</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0005737923964170249</v>
+        <v>0.0006770016140866458</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.003105007624417039</v>
+        <v>0.003127155411810478</v>
       </c>
     </row>
     <row r="26">
@@ -2232,19 +2232,19 @@
         <v>10254</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5155</v>
+        <v>5477</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17323</v>
+        <v>18526</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003911519485885098</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001966396335122354</v>
+        <v>0.002089169772744311</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.006607797015536075</v>
+        <v>0.007066784431708968</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2253,19 +2253,19 @@
         <v>6229</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2895</v>
+        <v>2131</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13135</v>
+        <v>13730</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.003780568218250182</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001757326267866234</v>
+        <v>0.001293256749823051</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.007971655578614519</v>
+        <v>0.008332880106544968</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -2274,19 +2274,19 @@
         <v>16484</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9512</v>
+        <v>9781</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26463</v>
+        <v>27413</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003860980333321851</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002227922198143905</v>
+        <v>0.002291121288540986</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006198476646616188</v>
+        <v>0.00642113742264974</v>
       </c>
     </row>
     <row r="27">
@@ -2303,19 +2303,19 @@
         <v>2606413</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2597824</v>
+        <v>2596818</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2612779</v>
+        <v>2612716</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9942122562539918</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9909361117159737</v>
+        <v>0.9905521511747255</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9966404409214864</v>
+        <v>0.9966167366975157</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1512</v>
@@ -2324,19 +2324,19 @@
         <v>1637424</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1629103</v>
+        <v>1628709</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1642529</v>
+        <v>1642750</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9937811017871563</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9887306125040924</v>
+        <v>0.9884916690090217</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9968789534344463</v>
+        <v>0.9970135357517496</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3962</v>
@@ -2345,19 +2345,19 @@
         <v>4243837</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4231603</v>
+        <v>4231954</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4252011</v>
+        <v>4252560</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9940458570906139</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9911802262329467</v>
+        <v>0.9912623308624855</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9959603710012063</v>
+        <v>0.9960890393778221</v>
       </c>
     </row>
     <row r="28">
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4450</v>
+        <v>4961</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003071982309705776</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01535908768665984</v>
+        <v>0.01712084581550595</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5365</v>
+        <v>4481</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00110996700622167</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006690738152208728</v>
+        <v>0.005587856084231332</v>
       </c>
     </row>
     <row r="5">
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5754</v>
+        <v>5123</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.001992595525611856</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01123488695886091</v>
+        <v>0.01000257604230253</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5084</v>
+        <v>5164</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001272631975305501</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006339114809913815</v>
+        <v>0.006439161521086498</v>
       </c>
     </row>
     <row r="6">
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7953</v>
+        <v>8684</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004281479514066619</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01552841928591665</v>
+        <v>0.01695608761023965</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6877</v>
+        <v>8353</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002734497624420551</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.008575571376360967</v>
+        <v>0.01041568344992632</v>
       </c>
     </row>
     <row r="7">
@@ -2878,19 +2878,19 @@
         <v>508962</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>503250</v>
+        <v>502419</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>511235</v>
+        <v>511225</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9937259249603215</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9825751081673305</v>
+        <v>0.9809513781738238</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9981646940708485</v>
+        <v>0.9981448525964095</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>300</v>
@@ -2899,7 +2899,7 @@
         <v>288862</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>285302</v>
+        <v>284791</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>289752</v>
@@ -2908,7 +2908,7 @@
         <v>0.9969280176902943</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9846409123133401</v>
+        <v>0.9828791541844946</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -2920,19 +2920,19 @@
         <v>797823</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>792122</v>
+        <v>791552</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>800912</v>
+        <v>800680</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9948829033940523</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9877736039531819</v>
+        <v>0.9870625748586058</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9987342403335303</v>
+        <v>0.9984446831341024</v>
       </c>
     </row>
     <row r="8">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6472</v>
+        <v>5380</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002218413785252487</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01323534858200705</v>
+        <v>0.01100149367892185</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5054</v>
+        <v>6183</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0008572141059258532</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003994217598769527</v>
+        <v>0.004885773315405392</v>
       </c>
     </row>
     <row r="10">
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6336</v>
+        <v>6163</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002234673441351621</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01295851145579793</v>
+        <v>0.01260302156279418</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5435</v>
+        <v>5478</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0008634969764427684</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.004295265842190772</v>
+        <v>0.004328609124274833</v>
       </c>
     </row>
     <row r="12">
@@ -3210,7 +3210,7 @@
         <v>486805</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>481441</v>
+        <v>482049</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>488982</v>
@@ -3219,7 +3219,7 @@
         <v>0.9955469127733959</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9845790226500144</v>
+        <v>0.9858222015368839</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -3231,7 +3231,7 @@
         <v>1263277</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1257810</v>
+        <v>1257401</v>
       </c>
       <c r="T12" s="5" t="n">
         <v>1265454</v>
@@ -3240,7 +3240,7 @@
         <v>0.9982792889176314</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.993959495665618</v>
+        <v>0.993636239697208</v>
       </c>
       <c r="W12" s="6" t="n">
         <v>1</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5264</v>
+        <v>6156</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001831863860665075</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008854239120020256</v>
+        <v>0.01035417415419046</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4664</v>
+        <v>5115</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002157790471289335</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01083162506460528</v>
+        <v>0.01187878959024794</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6355</v>
+        <v>7091</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001968773894789867</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006199179450812236</v>
+        <v>0.00691700778346578</v>
       </c>
     </row>
     <row r="17">
@@ -3500,7 +3500,7 @@
         <v>593432</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>589257</v>
+        <v>588365</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>594521</v>
@@ -3509,7 +3509,7 @@
         <v>0.998168136139335</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9911457608799791</v>
+        <v>0.9896458258458077</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3521,7 +3521,7 @@
         <v>429699</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>425964</v>
+        <v>425513</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>430628</v>
@@ -3530,7 +3530,7 @@
         <v>0.9978422095287106</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9891683749353947</v>
+        <v>0.9881212104097503</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>1023131</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1018794</v>
+        <v>1018058</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>1025149</v>
@@ -3551,7 +3551,7 @@
         <v>0.9980312261052101</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9938008205491875</v>
+        <v>0.993082992216534</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6827</v>
+        <v>5987</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003851991979133832</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01326663730993996</v>
+        <v>0.01163419299917931</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6917</v>
+        <v>6979</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001639805908357248</v>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.005722783216507711</v>
+        <v>0.005773952415562263</v>
       </c>
     </row>
     <row r="20">
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4693</v>
+        <v>4157</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.001340297164514482</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.006760053406485342</v>
+        <v>0.005988707789849839</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4270</v>
+        <v>3745</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0007697281650900535</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0035329074485662</v>
+        <v>0.00309856520285353</v>
       </c>
     </row>
     <row r="22">
@@ -3819,7 +3819,7 @@
         <v>693255</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>689492</v>
+        <v>690028</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>694185</v>
@@ -3828,7 +3828,7 @@
         <v>0.9986597028354856</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9932399465935147</v>
+        <v>0.9940112922101505</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -3840,7 +3840,7 @@
         <v>512590</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>507745</v>
+        <v>508585</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>514572</v>
@@ -3849,7 +3849,7 @@
         <v>0.9961480080208661</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9867333626900598</v>
+        <v>0.9883658070008207</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -3861,19 +3861,19 @@
         <v>1205844</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1200548</v>
+        <v>1200046</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1207827</v>
+        <v>1207826</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9975904659265526</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9932088787176865</v>
+        <v>0.992793297334675</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9992305483292439</v>
+        <v>0.9992298131222928</v>
       </c>
     </row>
     <row r="23">
@@ -3978,19 +3978,19 @@
         <v>3957</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>980</v>
+        <v>1012</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9911</v>
+        <v>9885</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.002295333624128666</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0005681780282503282</v>
+        <v>0.0005871086643824994</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.005749113733114211</v>
+        <v>0.00573415478114423</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -3999,19 +3999,19 @@
         <v>3957</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11032</v>
+        <v>10237</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0009199581903943525</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0002529818349238565</v>
+        <v>0.0002523430997993667</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.002564847299456905</v>
+        <v>0.002380050327720276</v>
       </c>
     </row>
     <row r="25">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5611</v>
+        <v>5986</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0003959711911594336</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.002176995976395667</v>
+        <v>0.002322599569026816</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5094</v>
+        <v>6113</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0002372679261359831</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.001184225031725385</v>
+        <v>0.001421258706474963</v>
       </c>
     </row>
     <row r="26">
@@ -4091,19 +4091,19 @@
         <v>4212</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9741</v>
+        <v>10010</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001634375548692954</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0004213693587859381</v>
+        <v>0.0004229240608732927</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.003779438779397292</v>
+        <v>0.003883995412851201</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6815</v>
+        <v>7166</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.001172852916386559</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.003952988791775536</v>
+        <v>0.004156762399497167</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -4136,16 +4136,16 @@
         <v>2179</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13015</v>
+        <v>12609</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.001449399595228322</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0005066251031808292</v>
+        <v>0.0005065915108083796</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.003025920063158045</v>
+        <v>0.002931468280705846</v>
       </c>
     </row>
     <row r="27">
@@ -4162,19 +4162,19 @@
         <v>2572120</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2566240</v>
+        <v>2564968</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2575476</v>
+        <v>2575469</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9979696532601476</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9956883930761722</v>
+        <v>0.9951947538120423</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9992717582997148</v>
+        <v>0.999268924422508</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1675</v>
@@ -4183,19 +4183,19 @@
         <v>1717955</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1711309</v>
+        <v>1711152</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1721860</v>
+        <v>1721839</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9965318134594848</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9926766104388631</v>
+        <v>0.9925854805742134</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9987969736102615</v>
+        <v>0.9987849519338663</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4099</v>
@@ -4204,19 +4204,19 @@
         <v>4290075</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4281209</v>
+        <v>4281520</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4295357</v>
+        <v>4295912</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9973933742882414</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9953321589119136</v>
+        <v>0.9954043454851147</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9986212487466877</v>
+        <v>0.9987504807047001</v>
       </c>
     </row>
     <row r="28">
